--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>822.6845064309474</v>
+        <v>1917.833197533059</v>
       </c>
       <c r="R2">
-        <v>822.6845064309474</v>
+        <v>17260.49877779753</v>
       </c>
       <c r="S2">
-        <v>0.1034586575792677</v>
+        <v>0.1063033753747983</v>
       </c>
       <c r="T2">
-        <v>0.1034586575792677</v>
+        <v>0.1063033753747983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>30.47460085849037</v>
+        <v>6.23384841956211</v>
       </c>
       <c r="R3">
-        <v>30.47460085849037</v>
+        <v>56.104635776059</v>
       </c>
       <c r="S3">
-        <v>0.003832406311821127</v>
+        <v>0.0003455353309280072</v>
       </c>
       <c r="T3">
-        <v>0.003832406311821127</v>
+        <v>0.0003455353309280074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>5935.935271679841</v>
+        <v>4313.482904334308</v>
       </c>
       <c r="R4">
-        <v>5935.935271679841</v>
+        <v>38821.34613900877</v>
       </c>
       <c r="S4">
-        <v>0.7464877360455904</v>
+        <v>0.2390915919810178</v>
       </c>
       <c r="T4">
-        <v>0.7464877360455904</v>
+        <v>0.2390915919810178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N5">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q5">
-        <v>219.8841192610467</v>
+        <v>159.5049964304362</v>
       </c>
       <c r="R5">
-        <v>219.8841192610467</v>
+        <v>1435.544967873926</v>
       </c>
       <c r="S5">
-        <v>0.02765205327670398</v>
+        <v>0.008841185735814355</v>
       </c>
       <c r="T5">
-        <v>0.02765205327670398</v>
+        <v>0.008841185735814357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N6">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O6">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P6">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q6">
-        <v>11.46688256317591</v>
+        <v>2910.59974552522</v>
       </c>
       <c r="R6">
-        <v>11.46688256317591</v>
+        <v>26195.39770972698</v>
       </c>
       <c r="S6">
-        <v>0.001442045240103071</v>
+        <v>0.1613313283513679</v>
       </c>
       <c r="T6">
-        <v>0.001442045240103071</v>
+        <v>0.1613313283513679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N7">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q7">
-        <v>0.4247663186462357</v>
+        <v>9.460800682227999</v>
       </c>
       <c r="R7">
-        <v>0.4247663186462357</v>
+        <v>85.14720614005201</v>
       </c>
       <c r="S7">
-        <v>5.341750424190783E-05</v>
+        <v>0.0005244017298077323</v>
       </c>
       <c r="T7">
-        <v>5.341750424190783E-05</v>
+        <v>0.0005244017298077324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.5806919086426</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>18.5806919086426</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.1170736840422721</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.1170736840422721</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N8">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q8">
-        <v>897.6955067771386</v>
+        <v>6546.357764498132</v>
       </c>
       <c r="R8">
-        <v>897.6955067771386</v>
+        <v>58917.21988048319</v>
       </c>
       <c r="S8">
-        <v>0.1128918453187116</v>
+        <v>0.3628573786668819</v>
       </c>
       <c r="T8">
-        <v>0.1128918453187116</v>
+        <v>0.3628573786668819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.5806919086426</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>18.5806919086426</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.1170736840422721</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.1170736840422721</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N9">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q9">
-        <v>33.25322410674299</v>
+        <v>242.072773908392</v>
       </c>
       <c r="R9">
-        <v>33.25322410674299</v>
+        <v>2178.654965175528</v>
       </c>
       <c r="S9">
-        <v>0.004181838723560473</v>
+        <v>0.01341782642301919</v>
       </c>
       <c r="T9">
-        <v>0.004181838723560473</v>
+        <v>0.0134178264230192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.0874</v>
+      </c>
+      <c r="I10">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J10">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>8.575925690777778</v>
+      </c>
+      <c r="R10">
+        <v>77.18333121699999</v>
+      </c>
+      <c r="S10">
+        <v>0.0004753540866149342</v>
+      </c>
+      <c r="T10">
+        <v>0.0004753540866149343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.0874</v>
+      </c>
+      <c r="I11">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J11">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.02787574064444444</v>
+      </c>
+      <c r="R11">
+        <v>0.2508816658</v>
+      </c>
+      <c r="S11">
+        <v>1.545121507641343E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.545121507641344E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.0874</v>
+      </c>
+      <c r="I12">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J12">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>19.28849125335556</v>
+      </c>
+      <c r="R12">
+        <v>173.5964212802</v>
+      </c>
+      <c r="S12">
+        <v>0.001069139760828248</v>
+      </c>
+      <c r="T12">
+        <v>0.001069139760828248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.0874</v>
+      </c>
+      <c r="I13">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J13">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>0.7132544156888889</v>
+      </c>
+      <c r="R13">
+        <v>6.419289741199999</v>
+      </c>
+      <c r="S13">
+        <v>3.953490427959981E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.953490427959983E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H14">
+        <v>72.491192</v>
+      </c>
+      <c r="I14">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J14">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>571.7114914731511</v>
+      </c>
+      <c r="R14">
+        <v>5145.40342325836</v>
+      </c>
+      <c r="S14">
+        <v>0.03168933636268883</v>
+      </c>
+      <c r="T14">
+        <v>0.03168933636268884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H15">
+        <v>72.491192</v>
+      </c>
+      <c r="I15">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J15">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>1.858327816073778</v>
+      </c>
+      <c r="R15">
+        <v>16.724950344664</v>
+      </c>
+      <c r="S15">
+        <v>0.0001030050578202668</v>
+      </c>
+      <c r="T15">
+        <v>0.0001030050578202668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H16">
+        <v>72.491192</v>
+      </c>
+      <c r="I16">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J16">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>1285.861433545446</v>
+      </c>
+      <c r="R16">
+        <v>11572.75290190902</v>
+      </c>
+      <c r="S16">
+        <v>0.07127387868037023</v>
+      </c>
+      <c r="T16">
+        <v>0.07127387868037025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H17">
+        <v>72.491192</v>
+      </c>
+      <c r="I17">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J17">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>47.54888982209955</v>
+      </c>
+      <c r="R17">
+        <v>427.940008398896</v>
+      </c>
+      <c r="S17">
+        <v>0.002635582432255005</v>
+      </c>
+      <c r="T17">
+        <v>0.002635582432255006</v>
       </c>
     </row>
   </sheetData>
